--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.6285817777886</v>
+        <v>64.47813050000001</v>
       </c>
       <c r="H2">
-        <v>63.6285817777886</v>
+        <v>128.956261</v>
       </c>
       <c r="I2">
-        <v>0.1030896946393643</v>
+        <v>0.09343799995695903</v>
       </c>
       <c r="J2">
-        <v>0.1030896946393643</v>
+        <v>0.06466936064487877</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>10471.49179990568</v>
+        <v>10611.6347246328</v>
       </c>
       <c r="R2">
-        <v>10471.49179990568</v>
+        <v>42446.5388985312</v>
       </c>
       <c r="S2">
-        <v>0.02442495007292181</v>
+        <v>0.02168476841740161</v>
       </c>
       <c r="T2">
-        <v>0.02442495007292181</v>
+        <v>0.01167668701500225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.6285817777886</v>
+        <v>64.47813050000001</v>
       </c>
       <c r="H3">
-        <v>63.6285817777886</v>
+        <v>128.956261</v>
       </c>
       <c r="I3">
-        <v>0.1030896946393643</v>
+        <v>0.09343799995695903</v>
       </c>
       <c r="J3">
-        <v>0.1030896946393643</v>
+        <v>0.06466936064487877</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>7086.396719187978</v>
+        <v>7657.701839528804</v>
       </c>
       <c r="R3">
-        <v>7086.396719187978</v>
+        <v>45946.21103717283</v>
       </c>
       <c r="S3">
-        <v>0.01652915261459139</v>
+        <v>0.01564843639163602</v>
       </c>
       <c r="T3">
-        <v>0.01652915261459139</v>
+        <v>0.01263941748204289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.6285817777886</v>
+        <v>64.47813050000001</v>
       </c>
       <c r="H4">
-        <v>63.6285817777886</v>
+        <v>128.956261</v>
       </c>
       <c r="I4">
-        <v>0.1030896946393643</v>
+        <v>0.09343799995695903</v>
       </c>
       <c r="J4">
-        <v>0.1030896946393643</v>
+        <v>0.06466936064487877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>5346.178490026204</v>
+        <v>5450.462554866389</v>
       </c>
       <c r="R4">
-        <v>5346.178490026204</v>
+        <v>32702.77532919834</v>
       </c>
       <c r="S4">
-        <v>0.01247006111402338</v>
+        <v>0.01113796519923905</v>
       </c>
       <c r="T4">
-        <v>0.01247006111402338</v>
+        <v>0.008996259340574873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.6285817777886</v>
+        <v>64.47813050000001</v>
       </c>
       <c r="H5">
-        <v>63.6285817777886</v>
+        <v>128.956261</v>
       </c>
       <c r="I5">
-        <v>0.1030896946393643</v>
+        <v>0.09343799995695903</v>
       </c>
       <c r="J5">
-        <v>0.1030896946393643</v>
+        <v>0.06466936064487877</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>5026.740523031222</v>
+        <v>5134.761164522401</v>
       </c>
       <c r="R5">
-        <v>5026.740523031222</v>
+        <v>30808.56698713441</v>
       </c>
       <c r="S5">
-        <v>0.01172496609372089</v>
+        <v>0.01049283259561016</v>
       </c>
       <c r="T5">
-        <v>0.01172496609372089</v>
+        <v>0.008475178505118296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.6285817777886</v>
+        <v>64.47813050000001</v>
       </c>
       <c r="H6">
-        <v>63.6285817777886</v>
+        <v>128.956261</v>
       </c>
       <c r="I6">
-        <v>0.1030896946393643</v>
+        <v>0.09343799995695903</v>
       </c>
       <c r="J6">
-        <v>0.1030896946393643</v>
+        <v>0.06466936064487877</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>7385.672166934311</v>
+        <v>7849.134571945561</v>
       </c>
       <c r="R6">
-        <v>7385.672166934311</v>
+        <v>47094.80743167337</v>
       </c>
       <c r="S6">
-        <v>0.01722721818241443</v>
+        <v>0.01603962724749272</v>
       </c>
       <c r="T6">
-        <v>0.01722721818241443</v>
+        <v>0.01295538672130652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.6285817777886</v>
+        <v>64.47813050000001</v>
       </c>
       <c r="H7">
-        <v>63.6285817777886</v>
+        <v>128.956261</v>
       </c>
       <c r="I7">
-        <v>0.1030896946393643</v>
+        <v>0.09343799995695903</v>
       </c>
       <c r="J7">
-        <v>0.1030896946393643</v>
+        <v>0.06466936064487877</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>8880.249008567149</v>
+        <v>9021.023336459519</v>
       </c>
       <c r="R7">
-        <v>8880.249008567149</v>
+        <v>36084.09334583808</v>
       </c>
       <c r="S7">
-        <v>0.02071334656169236</v>
+        <v>0.0184343701055795</v>
       </c>
       <c r="T7">
-        <v>0.02071334656169236</v>
+        <v>0.009926431580833941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.9694658887025</v>
+        <v>65.77938899999999</v>
       </c>
       <c r="H8">
-        <v>57.9694658887025</v>
+        <v>197.338167</v>
       </c>
       <c r="I8">
-        <v>0.09392091368221411</v>
+        <v>0.09532370896750474</v>
       </c>
       <c r="J8">
-        <v>0.09392091368221411</v>
+        <v>0.09896171765341671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>9540.158993616931</v>
+        <v>10825.79229677772</v>
       </c>
       <c r="R8">
-        <v>9540.158993616931</v>
+        <v>64954.75378066635</v>
       </c>
       <c r="S8">
-        <v>0.02225259891899341</v>
+        <v>0.02212239725379715</v>
       </c>
       <c r="T8">
-        <v>0.02225259891899341</v>
+        <v>0.01786850823918697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.9694658887025</v>
+        <v>65.77938899999999</v>
       </c>
       <c r="H9">
-        <v>57.9694658887025</v>
+        <v>197.338167</v>
       </c>
       <c r="I9">
-        <v>0.09392091368221411</v>
+        <v>0.09532370896750474</v>
       </c>
       <c r="J9">
-        <v>0.09392091368221411</v>
+        <v>0.09896171765341671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>6456.133728100484</v>
+        <v>7812.244930835591</v>
       </c>
       <c r="R9">
-        <v>6456.133728100484</v>
+        <v>70310.20437752032</v>
       </c>
       <c r="S9">
-        <v>0.01505905242406638</v>
+        <v>0.01596424363834776</v>
       </c>
       <c r="T9">
-        <v>0.01505905242406638</v>
+        <v>0.01934174780280036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.9694658887025</v>
+        <v>65.77938899999999</v>
       </c>
       <c r="H10">
-        <v>57.9694658887025</v>
+        <v>197.338167</v>
       </c>
       <c r="I10">
-        <v>0.09392091368221411</v>
+        <v>0.09532370896750474</v>
       </c>
       <c r="J10">
-        <v>0.09392091368221411</v>
+        <v>0.09896171765341671</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>4870.690229978911</v>
+        <v>5560.460482434273</v>
       </c>
       <c r="R10">
-        <v>4870.690229978911</v>
+        <v>50044.14434190846</v>
       </c>
       <c r="S10">
-        <v>0.01136097587250887</v>
+        <v>0.01136274485360905</v>
       </c>
       <c r="T10">
-        <v>0.01136097587250887</v>
+        <v>0.01376672458055894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.9694658887025</v>
+        <v>65.77938899999999</v>
       </c>
       <c r="H11">
-        <v>57.9694658887025</v>
+        <v>197.338167</v>
       </c>
       <c r="I11">
-        <v>0.09392091368221411</v>
+        <v>0.09532370896750474</v>
       </c>
       <c r="J11">
-        <v>0.09392091368221411</v>
+        <v>0.09896171765341671</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>4579.66302469023</v>
+        <v>5238.387798219615</v>
       </c>
       <c r="R11">
-        <v>4579.66302469023</v>
+        <v>47145.49018397654</v>
       </c>
       <c r="S11">
-        <v>0.01068214948417116</v>
+        <v>0.01070459257528442</v>
       </c>
       <c r="T11">
-        <v>0.01068214948417116</v>
+        <v>0.01296932912158367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.9694658887025</v>
+        <v>65.77938899999999</v>
       </c>
       <c r="H12">
-        <v>57.9694658887025</v>
+        <v>197.338167</v>
       </c>
       <c r="I12">
-        <v>0.09392091368221411</v>
+        <v>0.09532370896750474</v>
       </c>
       <c r="J12">
-        <v>0.09392091368221411</v>
+        <v>0.09896171765341671</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>6728.791665378497</v>
+        <v>8007.541042483474</v>
       </c>
       <c r="R12">
-        <v>6728.791665378497</v>
+        <v>72067.86938235127</v>
       </c>
       <c r="S12">
-        <v>0.01569503215190815</v>
+        <v>0.01636332927065593</v>
       </c>
       <c r="T12">
-        <v>0.01569503215190815</v>
+        <v>0.01982526671084833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.9694658887025</v>
+        <v>65.77938899999999</v>
       </c>
       <c r="H13">
-        <v>57.9694658887025</v>
+        <v>197.338167</v>
       </c>
       <c r="I13">
-        <v>0.09392091368221411</v>
+        <v>0.09532370896750474</v>
       </c>
       <c r="J13">
-        <v>0.09392091368221411</v>
+        <v>0.09896171765341671</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>8090.441081699822</v>
+        <v>9203.08015486039</v>
       </c>
       <c r="R13">
-        <v>8090.441081699822</v>
+        <v>55218.48092916235</v>
       </c>
       <c r="S13">
-        <v>0.01887110483056613</v>
+        <v>0.01880640137581044</v>
       </c>
       <c r="T13">
-        <v>0.01887110483056613</v>
+        <v>0.01519014119843846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>175.830007470533</v>
+        <v>228.201711</v>
       </c>
       <c r="H14">
-        <v>175.830007470533</v>
+        <v>684.605133</v>
       </c>
       <c r="I14">
-        <v>0.2848760929777926</v>
+        <v>0.3306968005624167</v>
       </c>
       <c r="J14">
-        <v>0.2848760929777926</v>
+        <v>0.3433177722585505</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>28936.72041654346</v>
+        <v>37556.81471980983</v>
       </c>
       <c r="R14">
-        <v>28936.72041654346</v>
+        <v>225340.888318859</v>
       </c>
       <c r="S14">
-        <v>0.06749544047339438</v>
+        <v>0.07674697168041819</v>
       </c>
       <c r="T14">
-        <v>0.06749544047339438</v>
+        <v>0.06198938930855778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>175.830007470533</v>
+        <v>228.201711</v>
       </c>
       <c r="H15">
-        <v>175.830007470533</v>
+        <v>684.605133</v>
       </c>
       <c r="I15">
-        <v>0.2848760929777926</v>
+        <v>0.3306968005624167</v>
       </c>
       <c r="J15">
-        <v>0.2848760929777926</v>
+        <v>0.3433177722585505</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>19582.41333156565</v>
+        <v>27102.22285536521</v>
       </c>
       <c r="R15">
-        <v>19582.41333156565</v>
+        <v>243920.0056982869</v>
       </c>
       <c r="S15">
-        <v>0.04567634460021423</v>
+        <v>0.05538311876219807</v>
       </c>
       <c r="T15">
-        <v>0.04567634460021423</v>
+        <v>0.0671003487479875</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>175.830007470533</v>
+        <v>228.201711</v>
       </c>
       <c r="H16">
-        <v>175.830007470533</v>
+        <v>684.605133</v>
       </c>
       <c r="I16">
-        <v>0.2848760929777926</v>
+        <v>0.3306968005624167</v>
       </c>
       <c r="J16">
-        <v>0.2848760929777926</v>
+        <v>0.3433177722585505</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>14773.52751823004</v>
+        <v>19290.33722157843</v>
       </c>
       <c r="R16">
-        <v>14773.52751823004</v>
+        <v>173613.0349942059</v>
       </c>
       <c r="S16">
-        <v>0.03445952868310084</v>
+        <v>0.03941960934374184</v>
       </c>
       <c r="T16">
-        <v>0.03445952868310084</v>
+        <v>0.0477594905016419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>175.830007470533</v>
+        <v>228.201711</v>
       </c>
       <c r="H17">
-        <v>175.830007470533</v>
+        <v>684.605133</v>
       </c>
       <c r="I17">
-        <v>0.2848760929777926</v>
+        <v>0.3306968005624167</v>
       </c>
       <c r="J17">
-        <v>0.2848760929777926</v>
+        <v>0.3433177722585505</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>13890.79874204496</v>
+        <v>18173.00337701889</v>
       </c>
       <c r="R17">
-        <v>13890.79874204496</v>
+        <v>163557.03039317</v>
       </c>
       <c r="S17">
-        <v>0.03240054733657999</v>
+        <v>0.0371363489137578</v>
       </c>
       <c r="T17">
-        <v>0.03240054733657999</v>
+        <v>0.0449931679369585</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>175.830007470533</v>
+        <v>228.201711</v>
       </c>
       <c r="H18">
-        <v>175.830007470533</v>
+        <v>684.605133</v>
       </c>
       <c r="I18">
-        <v>0.2848760929777926</v>
+        <v>0.3306968005624167</v>
       </c>
       <c r="J18">
-        <v>0.2848760929777926</v>
+        <v>0.3433177722585505</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>20409.42538719745</v>
+        <v>27779.74369444892</v>
       </c>
       <c r="R18">
-        <v>20409.42538719745</v>
+        <v>250017.6932500403</v>
       </c>
       <c r="S18">
-        <v>0.04760536565609597</v>
+        <v>0.05676762575614781</v>
       </c>
       <c r="T18">
-        <v>0.04760536565609597</v>
+        <v>0.06877777147560508</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>175.830007470533</v>
+        <v>228.201711</v>
       </c>
       <c r="H19">
-        <v>175.830007470533</v>
+        <v>684.605133</v>
       </c>
       <c r="I19">
-        <v>0.2848760929777926</v>
+        <v>0.3306968005624167</v>
       </c>
       <c r="J19">
-        <v>0.2848760929777926</v>
+        <v>0.3433177722585505</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>24539.51048240418</v>
+        <v>31927.30534194056</v>
       </c>
       <c r="R19">
-        <v>24539.51048240418</v>
+        <v>191563.8320516434</v>
       </c>
       <c r="S19">
-        <v>0.05723886622840713</v>
+        <v>0.06524312610615303</v>
       </c>
       <c r="T19">
-        <v>0.05723886622840713</v>
+        <v>0.05269760428779972</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>266.125376937016</v>
+        <v>275.7897543333333</v>
       </c>
       <c r="H20">
-        <v>266.125376937016</v>
+        <v>827.369263</v>
       </c>
       <c r="I20">
-        <v>0.4311707581356088</v>
+        <v>0.3996586571865284</v>
       </c>
       <c r="J20">
-        <v>0.4311707581356088</v>
+        <v>0.4149115431893187</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>43796.82250462417</v>
+        <v>45388.72500004555</v>
       </c>
       <c r="R20">
-        <v>43796.82250462417</v>
+        <v>272332.3500002733</v>
       </c>
       <c r="S20">
-        <v>0.10215690595658</v>
+        <v>0.09275140126171018</v>
       </c>
       <c r="T20">
-        <v>0.10215690595658</v>
+        <v>0.07491634648033164</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>266.125376937016</v>
+        <v>275.7897543333333</v>
       </c>
       <c r="H21">
-        <v>266.125376937016</v>
+        <v>827.369263</v>
       </c>
       <c r="I21">
-        <v>0.4311707581356088</v>
+        <v>0.3996586571865284</v>
       </c>
       <c r="J21">
-        <v>0.4311707581356088</v>
+        <v>0.4149115431893187</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>29638.72438026666</v>
+        <v>32753.98484268342</v>
       </c>
       <c r="R21">
-        <v>29638.72438026666</v>
+        <v>294785.8635841508</v>
       </c>
       <c r="S21">
-        <v>0.06913287782163227</v>
+        <v>0.06693243731919446</v>
       </c>
       <c r="T21">
-        <v>0.06913287782163227</v>
+        <v>0.08109311983593524</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>266.125376937016</v>
+        <v>275.7897543333333</v>
       </c>
       <c r="H22">
-        <v>266.125376937016</v>
+        <v>827.369263</v>
       </c>
       <c r="I22">
-        <v>0.4311707581356088</v>
+        <v>0.3996586571865284</v>
       </c>
       <c r="J22">
-        <v>0.4311707581356088</v>
+        <v>0.4149115431893187</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>22360.29353600089</v>
+        <v>23313.0476543459</v>
       </c>
       <c r="R22">
-        <v>22360.29353600089</v>
+        <v>209817.4288891131</v>
       </c>
       <c r="S22">
-        <v>0.05215580202599378</v>
+        <v>0.04763997749704223</v>
       </c>
       <c r="T22">
-        <v>0.05215580202599378</v>
+        <v>0.05771901575502642</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>266.125376937016</v>
+        <v>275.7897543333333</v>
       </c>
       <c r="H23">
-        <v>266.125376937016</v>
+        <v>827.369263</v>
       </c>
       <c r="I23">
-        <v>0.4311707581356088</v>
+        <v>0.3996586571865284</v>
       </c>
       <c r="J23">
-        <v>0.4311707581356088</v>
+        <v>0.4149115431893187</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>21024.25009452647</v>
+        <v>21962.71059881262</v>
       </c>
       <c r="R23">
-        <v>21024.25009452647</v>
+        <v>197664.3953893136</v>
       </c>
       <c r="S23">
-        <v>0.04903945576159988</v>
+        <v>0.04488057735799453</v>
       </c>
       <c r="T23">
-        <v>0.04903945576159988</v>
+        <v>0.05437581812001487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>266.125376937016</v>
+        <v>275.7897543333333</v>
       </c>
       <c r="H24">
-        <v>266.125376937016</v>
+        <v>827.369263</v>
       </c>
       <c r="I24">
-        <v>0.4311707581356088</v>
+        <v>0.3996586571865284</v>
       </c>
       <c r="J24">
-        <v>0.4311707581356088</v>
+        <v>0.4149115431893187</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>30890.43845457421</v>
+        <v>33572.79248854989</v>
       </c>
       <c r="R24">
-        <v>30890.43845457421</v>
+        <v>302155.132396949</v>
       </c>
       <c r="S24">
-        <v>0.07205252426310788</v>
+        <v>0.06860566247627568</v>
       </c>
       <c r="T24">
-        <v>0.07205252426310788</v>
+        <v>0.08312034390860139</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>266.125376937016</v>
+        <v>275.7897543333333</v>
       </c>
       <c r="H25">
-        <v>266.125376937016</v>
+        <v>827.369263</v>
       </c>
       <c r="I25">
-        <v>0.4311707581356088</v>
+        <v>0.3996586571865284</v>
       </c>
       <c r="J25">
-        <v>0.4311707581356088</v>
+        <v>0.4149115431893187</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>37141.47869824845</v>
+        <v>38585.26589565803</v>
       </c>
       <c r="R25">
-        <v>37141.47869824845</v>
+        <v>231511.5953739481</v>
       </c>
       <c r="S25">
-        <v>0.08663319230669489</v>
+        <v>0.07884860127431134</v>
       </c>
       <c r="T25">
-        <v>0.08663319230669489</v>
+        <v>0.06368689908940911</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>42.0510503696106</v>
+        <v>44.18854533333334</v>
       </c>
       <c r="H26">
-        <v>42.0510503696106</v>
+        <v>132.565636</v>
       </c>
       <c r="I26">
-        <v>0.06813023048363701</v>
+        <v>0.06403549955521869</v>
       </c>
       <c r="J26">
-        <v>0.06813023048363701</v>
+        <v>0.06647940051240882</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>6920.431303350385</v>
+        <v>7272.430178325513</v>
       </c>
       <c r="R26">
-        <v>6920.431303350385</v>
+        <v>43634.58106995308</v>
       </c>
       <c r="S26">
-        <v>0.01614203518441765</v>
+        <v>0.0148611376419356</v>
       </c>
       <c r="T26">
-        <v>0.01614203518441765</v>
+        <v>0.01200350745681681</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>42.0510503696106</v>
+        <v>44.18854533333334</v>
       </c>
       <c r="H27">
-        <v>42.0510503696106</v>
+        <v>132.565636</v>
       </c>
       <c r="I27">
-        <v>0.06813023048363701</v>
+        <v>0.06403549955521869</v>
       </c>
       <c r="J27">
-        <v>0.06813023048363701</v>
+        <v>0.06647940051240882</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>4683.279385642997</v>
+        <v>5248.02289181087</v>
       </c>
       <c r="R27">
-        <v>4683.279385642997</v>
+        <v>47232.20602629783</v>
       </c>
       <c r="S27">
-        <v>0.01092383658008541</v>
+        <v>0.0107242817917556</v>
       </c>
       <c r="T27">
-        <v>0.01092383658008541</v>
+        <v>0.01299318392285377</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>42.0510503696106</v>
+        <v>44.18854533333334</v>
       </c>
       <c r="H28">
-        <v>42.0510503696106</v>
+        <v>132.565636</v>
       </c>
       <c r="I28">
-        <v>0.06813023048363701</v>
+        <v>0.06403549955521869</v>
       </c>
       <c r="J28">
-        <v>0.06813023048363701</v>
+        <v>0.06647940051240882</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>3533.198677194121</v>
+        <v>3735.344214009885</v>
       </c>
       <c r="R28">
-        <v>3533.198677194121</v>
+        <v>33618.09792608896</v>
       </c>
       <c r="S28">
-        <v>0.008241251861454649</v>
+        <v>0.007633138186716869</v>
       </c>
       <c r="T28">
-        <v>0.008241251861454649</v>
+        <v>0.009248056913686796</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>42.0510503696106</v>
+        <v>44.18854533333334</v>
       </c>
       <c r="H29">
-        <v>42.0510503696106</v>
+        <v>132.565636</v>
       </c>
       <c r="I29">
-        <v>0.06813023048363701</v>
+        <v>0.06403549955521869</v>
       </c>
       <c r="J29">
-        <v>0.06813023048363701</v>
+        <v>0.06647940051240882</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>3322.087543411771</v>
+        <v>3518.985813249309</v>
       </c>
       <c r="R29">
-        <v>3322.087543411771</v>
+        <v>31670.87231924378</v>
       </c>
       <c r="S29">
-        <v>0.007748831201533178</v>
+        <v>0.00719101197926632</v>
       </c>
       <c r="T29">
-        <v>0.007748831201533178</v>
+        <v>0.008712391473140931</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>42.0510503696106</v>
+        <v>44.18854533333334</v>
       </c>
       <c r="H30">
-        <v>42.0510503696106</v>
+        <v>132.565636</v>
       </c>
       <c r="I30">
-        <v>0.06813023048363701</v>
+        <v>0.06403549955521869</v>
       </c>
       <c r="J30">
-        <v>0.06813023048363701</v>
+        <v>0.06647940051240882</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>4881.065452469366</v>
+        <v>5379.216738609541</v>
       </c>
       <c r="R30">
-        <v>4881.065452469366</v>
+        <v>48412.95064748587</v>
       </c>
       <c r="S30">
-        <v>0.01138517627262064</v>
+        <v>0.01099237509306509</v>
       </c>
       <c r="T30">
-        <v>0.01138517627262064</v>
+        <v>0.01331799686977551</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>42.0510503696106</v>
+        <v>44.18854533333334</v>
       </c>
       <c r="H31">
-        <v>42.0510503696106</v>
+        <v>132.565636</v>
       </c>
       <c r="I31">
-        <v>0.06813023048363701</v>
+        <v>0.06403549955521869</v>
       </c>
       <c r="J31">
-        <v>0.06813023048363701</v>
+        <v>0.06647940051240882</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>5868.805934698614</v>
+        <v>6182.342688366241</v>
       </c>
       <c r="R31">
-        <v>5868.805934698614</v>
+        <v>37094.05613019744</v>
       </c>
       <c r="S31">
-        <v>0.01368909938352547</v>
+        <v>0.01263355486247922</v>
       </c>
       <c r="T31">
-        <v>0.01368909938352547</v>
+        <v>0.010204263876135</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.6112538176569</v>
+        <v>11.625726</v>
       </c>
       <c r="H32">
-        <v>11.6112538176569</v>
+        <v>23.251452</v>
       </c>
       <c r="I32">
-        <v>0.01881231008138312</v>
+        <v>0.01684733377137257</v>
       </c>
       <c r="J32">
-        <v>0.01881231008138312</v>
+        <v>0.01166020574142645</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>1910.888876367527</v>
+        <v>1913.330252660883</v>
       </c>
       <c r="R32">
-        <v>1910.888876367527</v>
+        <v>7653.321010643532</v>
       </c>
       <c r="S32">
-        <v>0.00445718397073079</v>
+        <v>0.00390987105301021</v>
       </c>
       <c r="T32">
-        <v>0.00445718397073079</v>
+        <v>0.002105364451039319</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.6112538176569</v>
+        <v>11.625726</v>
       </c>
       <c r="H33">
-        <v>11.6112538176569</v>
+        <v>23.251452</v>
       </c>
       <c r="I33">
-        <v>0.01881231008138312</v>
+        <v>0.01684733377137257</v>
       </c>
       <c r="J33">
-        <v>0.01881231008138312</v>
+        <v>0.01166020574142645</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>1293.160222342495</v>
+        <v>1380.721535902128</v>
       </c>
       <c r="R33">
-        <v>1293.160222342495</v>
+        <v>8284.329215412768</v>
       </c>
       <c r="S33">
-        <v>0.003016320355356475</v>
+        <v>0.002821490517898763</v>
       </c>
       <c r="T33">
-        <v>0.003016320355356475</v>
+        <v>0.002278949518330724</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.6112538176569</v>
+        <v>11.625726</v>
       </c>
       <c r="H34">
-        <v>11.6112538176569</v>
+        <v>23.251452</v>
       </c>
       <c r="I34">
-        <v>0.01881231008138312</v>
+        <v>0.01684733377137257</v>
       </c>
       <c r="J34">
-        <v>0.01881231008138312</v>
+        <v>0.01166020574142645</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>975.5967156235018</v>
+        <v>982.7453703257821</v>
       </c>
       <c r="R34">
-        <v>975.5967156235018</v>
+        <v>5896.472221954693</v>
       </c>
       <c r="S34">
-        <v>0.002275597548634395</v>
+        <v>0.002008230241785446</v>
       </c>
       <c r="T34">
-        <v>0.002275597548634395</v>
+        <v>0.001622070077209577</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.6112538176569</v>
+        <v>11.625726</v>
       </c>
       <c r="H35">
-        <v>11.6112538176569</v>
+        <v>23.251452</v>
       </c>
       <c r="I35">
-        <v>0.01881231008138312</v>
+        <v>0.01684733377137257</v>
       </c>
       <c r="J35">
-        <v>0.01881231008138312</v>
+        <v>0.01166020574142645</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>917.3041180181001</v>
+        <v>925.82284739441</v>
       </c>
       <c r="R35">
-        <v>917.3041180181001</v>
+        <v>5554.93708436646</v>
       </c>
       <c r="S35">
-        <v>0.00213962897669265</v>
+        <v>0.001891909640904252</v>
       </c>
       <c r="T35">
-        <v>0.00213962897669265</v>
+        <v>0.001528116624001605</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.6112538176569</v>
+        <v>11.625726</v>
       </c>
       <c r="H36">
-        <v>11.6112538176569</v>
+        <v>23.251452</v>
       </c>
       <c r="I36">
-        <v>0.01881231008138312</v>
+        <v>0.01684733377137257</v>
       </c>
       <c r="J36">
-        <v>0.01881231008138312</v>
+        <v>0.01166020574142645</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>1347.773465135039</v>
+        <v>1415.237804864184</v>
       </c>
       <c r="R36">
-        <v>1347.773465135039</v>
+        <v>8491.426829185104</v>
       </c>
       <c r="S36">
-        <v>0.003143706763522334</v>
+        <v>0.002892024165022659</v>
       </c>
       <c r="T36">
-        <v>0.003143706763522334</v>
+        <v>0.002335920335747761</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.6112538176569</v>
+        <v>11.625726</v>
       </c>
       <c r="H37">
-        <v>11.6112538176569</v>
+        <v>23.251452</v>
       </c>
       <c r="I37">
-        <v>0.01881231008138312</v>
+        <v>0.01684733377137257</v>
       </c>
       <c r="J37">
-        <v>0.01881231008138312</v>
+        <v>0.01166020574142645</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>1620.511133857505</v>
+        <v>1626.535148212527</v>
       </c>
       <c r="R37">
-        <v>1620.511133857505</v>
+        <v>6506.140592850108</v>
       </c>
       <c r="S37">
-        <v>0.003779872466446471</v>
+        <v>0.003323808152751239</v>
       </c>
       <c r="T37">
-        <v>0.003779872466446471</v>
+        <v>0.001789784735097465</v>
       </c>
     </row>
   </sheetData>
